--- a/Code/Results/Cases/Case_9_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167797086590298</v>
+        <v>1.063362911262487</v>
       </c>
       <c r="C2">
-        <v>0.1821801178004137</v>
+        <v>0.2214131871660641</v>
       </c>
       <c r="D2">
-        <v>0.1490185236787909</v>
+        <v>0.1657484948184731</v>
       </c>
       <c r="E2">
-        <v>0.1620275244727551</v>
+        <v>0.1682705293032924</v>
       </c>
       <c r="F2">
-        <v>1.298850984570379</v>
+        <v>1.176554974011694</v>
       </c>
       <c r="G2">
-        <v>0.9339668756367985</v>
+        <v>0.8016526005538509</v>
       </c>
       <c r="H2">
-        <v>0.002565348293687153</v>
+        <v>0.0020287693335308</v>
       </c>
       <c r="I2">
-        <v>0.005836587427388018</v>
+        <v>0.003944801187302005</v>
       </c>
       <c r="J2">
-        <v>0.6532656416184182</v>
+        <v>0.6063802941420278</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2126501477275369</v>
+        <v>0.2383762712523207</v>
       </c>
       <c r="M2">
-        <v>1.247197223862855</v>
+        <v>0.1656616591114677</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2118443550233451</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.229791000488774</v>
       </c>
       <c r="P2">
-        <v>1.119070804860087</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.025167111519213</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.018193849622946</v>
+        <v>0.9310729184794013</v>
       </c>
       <c r="C3">
-        <v>0.1584723440265918</v>
+        <v>0.1899182204508207</v>
       </c>
       <c r="D3">
-        <v>0.1304728866498692</v>
+        <v>0.1447423657979954</v>
       </c>
       <c r="E3">
-        <v>0.1424325958890762</v>
+        <v>0.1481189258595244</v>
       </c>
       <c r="F3">
-        <v>1.222101096941245</v>
+        <v>1.114067142943739</v>
       </c>
       <c r="G3">
-        <v>0.8823163920145447</v>
+        <v>0.7659658478955436</v>
       </c>
       <c r="H3">
-        <v>0.00443177567516706</v>
+        <v>0.003599633233866584</v>
       </c>
       <c r="I3">
-        <v>0.008216607101303897</v>
+        <v>0.005583319970609235</v>
       </c>
       <c r="J3">
-        <v>0.6333412968630086</v>
+        <v>0.5881372227628248</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1874293462945857</v>
+        <v>0.2400144420765109</v>
       </c>
       <c r="M3">
-        <v>1.085296970047892</v>
+        <v>0.157849188265569</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1873870801027167</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.071357150860848</v>
       </c>
       <c r="P3">
-        <v>1.148613662521395</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.057048518367647</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9260669832402755</v>
+        <v>0.8493000554885271</v>
       </c>
       <c r="C4">
-        <v>0.1441424282214143</v>
+        <v>0.1709423430037731</v>
       </c>
       <c r="D4">
-        <v>0.1191533973104697</v>
+        <v>0.1319406338603102</v>
       </c>
       <c r="E4">
-        <v>0.1304277432359342</v>
+        <v>0.1357727904458592</v>
       </c>
       <c r="F4">
-        <v>1.175433823543173</v>
+        <v>1.075942791241658</v>
       </c>
       <c r="G4">
-        <v>0.850983974875291</v>
+        <v>0.7444073006950731</v>
       </c>
       <c r="H4">
-        <v>0.005883752627810046</v>
+        <v>0.004833428806137685</v>
       </c>
       <c r="I4">
-        <v>0.009986138672944289</v>
+        <v>0.006830812457049085</v>
       </c>
       <c r="J4">
-        <v>0.6213714519410161</v>
+        <v>0.5768955568374423</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1719410567832682</v>
+        <v>0.2409065044785983</v>
       </c>
       <c r="M4">
-        <v>0.9860140634420134</v>
+        <v>0.153696611825481</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.172350412254886</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.974062839264235</v>
       </c>
       <c r="P4">
-        <v>1.167158316592882</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.077052722721188</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8874199406745049</v>
+        <v>0.814891653486626</v>
       </c>
       <c r="C5">
-        <v>0.1387666001640895</v>
+        <v>0.1637379130246757</v>
       </c>
       <c r="D5">
-        <v>0.1146948141773834</v>
+        <v>0.1268852136312262</v>
       </c>
       <c r="E5">
-        <v>0.1255775131804491</v>
+        <v>0.1307827832771302</v>
       </c>
       <c r="F5">
-        <v>1.155501235184843</v>
+        <v>1.0595331876073</v>
       </c>
       <c r="G5">
-        <v>0.8373153578419306</v>
+        <v>0.7348313478360637</v>
       </c>
       <c r="H5">
-        <v>0.006552448607022643</v>
+        <v>0.005403868572904535</v>
       </c>
       <c r="I5">
-        <v>0.01086809691106971</v>
+        <v>0.00749415333788761</v>
       </c>
       <c r="J5">
-        <v>0.6160516339941609</v>
+        <v>0.571837506570958</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1655911886218036</v>
+        <v>0.2409483747121612</v>
       </c>
       <c r="M5">
-        <v>0.9453676734991348</v>
+        <v>0.1519774771210152</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1661825199409108</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9342048657963176</v>
       </c>
       <c r="P5">
-        <v>1.174241549612937</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.084882249537493</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8797372110461765</v>
+        <v>0.8080140640871036</v>
       </c>
       <c r="C6">
-        <v>0.1383818812461897</v>
+        <v>0.1630900997610638</v>
       </c>
       <c r="D6">
-        <v>0.1141256246124698</v>
+        <v>0.1262173958667319</v>
       </c>
       <c r="E6">
-        <v>0.1248178651460528</v>
+        <v>0.1299986671534299</v>
       </c>
       <c r="F6">
-        <v>1.150950208036164</v>
+        <v>1.055678352779481</v>
       </c>
       <c r="G6">
-        <v>0.8338434611649745</v>
+        <v>0.7321815457658261</v>
       </c>
       <c r="H6">
-        <v>0.006671969946653034</v>
+        <v>0.00550584078363614</v>
       </c>
       <c r="I6">
-        <v>0.0111320863834381</v>
+        <v>0.007734792230007947</v>
       </c>
       <c r="J6">
-        <v>0.6145551873914599</v>
+        <v>0.570427962835609</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1644937018345303</v>
+        <v>0.2405967177178674</v>
       </c>
       <c r="M6">
-        <v>0.9383653327605259</v>
+        <v>0.151472009307728</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1651172594004606</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9273445287573168</v>
       </c>
       <c r="P6">
-        <v>1.174726423266925</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.085669816810919</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9220899285880932</v>
+        <v>0.8448493236964794</v>
       </c>
       <c r="C7">
-        <v>0.1454508403891026</v>
+        <v>0.1719128547802455</v>
       </c>
       <c r="D7">
-        <v>0.119559192064969</v>
+        <v>0.1326283744760843</v>
       </c>
       <c r="E7">
-        <v>0.1304868764199547</v>
+        <v>0.1359003806070014</v>
       </c>
       <c r="F7">
-        <v>1.171756946264352</v>
+        <v>1.070726131841525</v>
       </c>
       <c r="G7">
-        <v>0.8475004279323883</v>
+        <v>0.744623529811264</v>
       </c>
       <c r="H7">
-        <v>0.005902847932995448</v>
+        <v>0.004855465954010874</v>
       </c>
       <c r="I7">
-        <v>0.01028899862771482</v>
+        <v>0.007175458847155092</v>
       </c>
       <c r="J7">
-        <v>0.6196158525293072</v>
+        <v>0.5690297838423817</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1717381479582016</v>
+        <v>0.2395455101396102</v>
       </c>
       <c r="M7">
-        <v>0.9847687634982094</v>
+        <v>0.1527519697341582</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1720852016422114</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9715566503613502</v>
       </c>
       <c r="P7">
-        <v>1.165365052411126</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.075095368263899</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.11164178880415</v>
+        <v>1.010887159753622</v>
       </c>
       <c r="C8">
-        <v>0.1757979273688619</v>
+        <v>0.2110495490005349</v>
       </c>
       <c r="D8">
-        <v>0.1432301601888639</v>
+        <v>0.1600827626336638</v>
       </c>
       <c r="E8">
-        <v>0.1554306011834115</v>
+        <v>0.1617260514620398</v>
       </c>
       <c r="F8">
-        <v>1.267775140676235</v>
+        <v>1.144580345636527</v>
       </c>
       <c r="G8">
-        <v>0.9117059438817989</v>
+        <v>0.7963307419396415</v>
       </c>
       <c r="H8">
-        <v>0.003152968219498287</v>
+        <v>0.002534095681654747</v>
       </c>
       <c r="I8">
-        <v>0.006936530487633874</v>
+        <v>0.004871456176326561</v>
       </c>
       <c r="J8">
-        <v>0.6441165664309807</v>
+        <v>0.5775860822065937</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2037962397223154</v>
+        <v>0.2365420770991875</v>
       </c>
       <c r="M8">
-        <v>1.190402385696899</v>
+        <v>0.1609202546918063</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2030300998302152</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.169883064654215</v>
       </c>
       <c r="P8">
-        <v>1.126748502912044</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.032275136446833</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.487808379666831</v>
+        <v>1.341030965731989</v>
       </c>
       <c r="C9">
-        <v>0.2348371202401438</v>
+        <v>0.2897464086128707</v>
       </c>
       <c r="D9">
-        <v>0.1894280659939938</v>
+        <v>0.2128682324479882</v>
       </c>
       <c r="E9">
-        <v>0.2044249150043953</v>
+        <v>0.2121803031766447</v>
       </c>
       <c r="F9">
-        <v>1.46630639184815</v>
+        <v>1.304140994373441</v>
       </c>
       <c r="G9">
-        <v>1.04697130782111</v>
+        <v>0.894239404918693</v>
       </c>
       <c r="H9">
-        <v>0.0003334150670544211</v>
+        <v>0.0002196313382696324</v>
       </c>
       <c r="I9">
-        <v>0.00252707542655628</v>
+        <v>0.0018556866054249</v>
       </c>
       <c r="J9">
-        <v>0.6974456111689022</v>
+        <v>0.6191062224522454</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2669791091738318</v>
+        <v>0.2327957248833386</v>
       </c>
       <c r="M9">
-        <v>1.596492356453126</v>
+        <v>0.1843876427836015</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2641167294112705</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.5650802299281</v>
       </c>
       <c r="P9">
-        <v>1.057643178531603</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.9565729109480507</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.75340057090429</v>
+        <v>1.568439298719511</v>
       </c>
       <c r="C10">
-        <v>0.2781450866774264</v>
+        <v>0.344620523536264</v>
       </c>
       <c r="D10">
-        <v>0.2186371995057215</v>
+        <v>0.2482514463117695</v>
       </c>
       <c r="E10">
-        <v>0.2311675965528792</v>
+        <v>0.2401908302654121</v>
       </c>
       <c r="F10">
-        <v>1.590544043685171</v>
+        <v>1.390828784690754</v>
       </c>
       <c r="G10">
-        <v>1.131736245106723</v>
+        <v>0.973958116128756</v>
       </c>
       <c r="H10">
-        <v>0.0002283560616556102</v>
+        <v>0.0002513771038037405</v>
       </c>
       <c r="I10">
-        <v>0.001251855615207909</v>
+        <v>0.001219007323156163</v>
       </c>
       <c r="J10">
-        <v>0.7296303057667899</v>
+        <v>0.6080259170340554</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2985142053718448</v>
+        <v>0.2251183737353202</v>
       </c>
       <c r="M10">
-        <v>1.885673709055112</v>
+        <v>0.2000033915052697</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2937662934720464</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.837884659600888</v>
       </c>
       <c r="P10">
-        <v>1.002171663643097</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8965409099775457</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.794686510643174</v>
+        <v>1.602047577824322</v>
       </c>
       <c r="C11">
-        <v>0.2801920562806401</v>
+        <v>0.3387366044572957</v>
       </c>
       <c r="D11">
-        <v>0.1870693984748044</v>
+        <v>0.2172611979511458</v>
       </c>
       <c r="E11">
-        <v>0.1670316223988593</v>
+        <v>0.1752230725233304</v>
       </c>
       <c r="F11">
-        <v>1.44559570509989</v>
+        <v>1.239476413589799</v>
       </c>
       <c r="G11">
-        <v>1.032295277865458</v>
+        <v>0.9277335657546359</v>
       </c>
       <c r="H11">
-        <v>0.01878276123976264</v>
+        <v>0.01879334434915592</v>
       </c>
       <c r="I11">
-        <v>0.001604935059496881</v>
+        <v>0.001785221192457165</v>
       </c>
       <c r="J11">
-        <v>0.6753478134900632</v>
+        <v>0.4996545602227798</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.196823078667812</v>
+        <v>0.199617732204544</v>
       </c>
       <c r="M11">
-        <v>1.923370926672021</v>
+        <v>0.1819638276423632</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1923936869176543</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.858712484097993</v>
       </c>
       <c r="P11">
-        <v>0.9285166838174703</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8433606342403479</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.778070433772797</v>
+        <v>1.589874276859206</v>
       </c>
       <c r="C12">
-        <v>0.2704437325490403</v>
+        <v>0.3213953834022902</v>
       </c>
       <c r="D12">
-        <v>0.1559799482991906</v>
+        <v>0.1840736687849898</v>
       </c>
       <c r="E12">
-        <v>0.1167558055445248</v>
+        <v>0.1236357651149653</v>
       </c>
       <c r="F12">
-        <v>1.307503799197434</v>
+        <v>1.110909710103996</v>
       </c>
       <c r="G12">
-        <v>0.9387040500244126</v>
+        <v>0.8647094814740228</v>
       </c>
       <c r="H12">
-        <v>0.05742423589414614</v>
+        <v>0.0574281548140263</v>
       </c>
       <c r="I12">
-        <v>0.001590554700705127</v>
+        <v>0.001780683900610924</v>
       </c>
       <c r="J12">
-        <v>0.6266408939273873</v>
+        <v>0.4398756585457164</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1247486351040195</v>
+        <v>0.1831705827049426</v>
       </c>
       <c r="M12">
-        <v>1.893997603973247</v>
+        <v>0.1662464947579281</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1213052003711823</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.823670058282687</v>
       </c>
       <c r="P12">
-        <v>0.888367785080483</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8225122584198394</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.710522364453226</v>
+        <v>1.539001786546123</v>
       </c>
       <c r="C13">
-        <v>0.2533351917073361</v>
+        <v>0.297731675466963</v>
       </c>
       <c r="D13">
-        <v>0.1244143138832356</v>
+        <v>0.1479784935361579</v>
       </c>
       <c r="E13">
-        <v>0.07468247462956512</v>
+        <v>0.07985660916716952</v>
       </c>
       <c r="F13">
-        <v>1.161774561044822</v>
+        <v>0.9902772844446872</v>
       </c>
       <c r="G13">
-        <v>0.8391823056972925</v>
+        <v>0.7741543112554581</v>
       </c>
       <c r="H13">
-        <v>0.1131588918959068</v>
+        <v>0.1131519728710373</v>
       </c>
       <c r="I13">
-        <v>0.001656258739211047</v>
+        <v>0.001780476013289345</v>
       </c>
       <c r="J13">
-        <v>0.5767961261284142</v>
+        <v>0.4140477898748287</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07135162939156814</v>
+        <v>0.1712382463866362</v>
       </c>
       <c r="M13">
-        <v>1.810397149934403</v>
+        <v>0.1510173738787657</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06933376868022734</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.746043242953789</v>
       </c>
       <c r="P13">
-        <v>0.8681050665709913</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8205427496193796</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.639503481104327</v>
+        <v>1.484962066419001</v>
       </c>
       <c r="C14">
-        <v>0.2385674205046513</v>
+        <v>0.2787882399890975</v>
       </c>
       <c r="D14">
-        <v>0.1027640744525087</v>
+        <v>0.1223818835285471</v>
       </c>
       <c r="E14">
-        <v>0.0505185756430091</v>
+        <v>0.05445630775893306</v>
       </c>
       <c r="F14">
-        <v>1.057122209145916</v>
+        <v>0.9087937241738331</v>
       </c>
       <c r="G14">
-        <v>0.7670679596239722</v>
+        <v>0.7003971672422153</v>
       </c>
       <c r="H14">
-        <v>0.1625382395732942</v>
+        <v>0.1625124598536303</v>
       </c>
       <c r="I14">
-        <v>0.00185854696848331</v>
+        <v>0.001905216420288625</v>
       </c>
       <c r="J14">
-        <v>0.5414418378089749</v>
+        <v>0.4079250107767791</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04539075058546871</v>
+        <v>0.1644688784144748</v>
       </c>
       <c r="M14">
-        <v>1.727610954562607</v>
+        <v>0.1405192104372475</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04441987710608331</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.672305267863351</v>
       </c>
       <c r="P14">
-        <v>0.863492247449906</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8269879109896578</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.610245133855585</v>
+        <v>1.462273851520933</v>
       </c>
       <c r="C15">
-        <v>0.2339517409118486</v>
+        <v>0.2732816506132849</v>
       </c>
       <c r="D15">
-        <v>0.09725013226521639</v>
+        <v>0.1155572473838475</v>
       </c>
       <c r="E15">
-        <v>0.0452035402375337</v>
+        <v>0.04881421024898813</v>
       </c>
       <c r="F15">
-        <v>1.028536254110648</v>
+        <v>0.8884605265729348</v>
       </c>
       <c r="G15">
-        <v>0.7469737359218698</v>
+        <v>0.6769784456805894</v>
       </c>
       <c r="H15">
-        <v>0.1750724536673118</v>
+        <v>0.1750354121365234</v>
       </c>
       <c r="I15">
-        <v>0.002066813438342585</v>
+        <v>0.002092301177203382</v>
       </c>
       <c r="J15">
-        <v>0.5319675825276136</v>
+        <v>0.4110516900478274</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04047106392636302</v>
+        <v>0.1632553122095892</v>
       </c>
       <c r="M15">
-        <v>1.69593208740406</v>
+        <v>0.137733508916412</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03979202629018275</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.644924715404585</v>
       </c>
       <c r="P15">
-        <v>0.8653479553370378</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8310906838321106</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.509201560507535</v>
+        <v>1.381584723189519</v>
       </c>
       <c r="C16">
-        <v>0.2199701687391524</v>
+        <v>0.2595771883512725</v>
       </c>
       <c r="D16">
-        <v>0.09232295143961267</v>
+        <v>0.1073575288115478</v>
       </c>
       <c r="E16">
-        <v>0.04374830307085631</v>
+        <v>0.04701579042358439</v>
       </c>
       <c r="F16">
-        <v>1.005500378950856</v>
+        <v>0.8878589574627327</v>
       </c>
       <c r="G16">
-        <v>0.7303577176372329</v>
+        <v>0.6363330102678191</v>
       </c>
       <c r="H16">
-        <v>0.1625116455957141</v>
+        <v>0.1624006106142986</v>
       </c>
       <c r="I16">
-        <v>0.00267381320688731</v>
+        <v>0.002480936079383156</v>
       </c>
       <c r="J16">
-        <v>0.527807419174863</v>
+        <v>0.4552777090106872</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03966439380659459</v>
+        <v>0.168884466515081</v>
       </c>
       <c r="M16">
-        <v>1.590002069388873</v>
+        <v>0.1369767715661219</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03946517699404062</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.556460465028181</v>
       </c>
       <c r="P16">
-        <v>0.8904645156372603</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8523945853549346</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.46917679991526</v>
+        <v>1.346931507190732</v>
       </c>
       <c r="C17">
-        <v>0.2171128167314009</v>
+        <v>0.2585726576079423</v>
       </c>
       <c r="D17">
-        <v>0.09967520229770344</v>
+        <v>0.1143460984853704</v>
       </c>
       <c r="E17">
-        <v>0.05435508340712758</v>
+        <v>0.05792981529776853</v>
       </c>
       <c r="F17">
-        <v>1.042387965802178</v>
+        <v>0.928720267087094</v>
       </c>
       <c r="G17">
-        <v>0.7552859269167982</v>
+        <v>0.6467818819960058</v>
       </c>
       <c r="H17">
-        <v>0.1248579359147186</v>
+        <v>0.1246976640277637</v>
       </c>
       <c r="I17">
-        <v>0.003078705352738353</v>
+        <v>0.002756790415483046</v>
       </c>
       <c r="J17">
-        <v>0.5431516273060453</v>
+        <v>0.4895732328023144</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05068497407274464</v>
+        <v>0.1769169314645538</v>
       </c>
       <c r="M17">
-        <v>1.552559604532007</v>
+        <v>0.1414361169334235</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05041599597872448</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.525684762227229</v>
       </c>
       <c r="P17">
-        <v>0.9118822054182609</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8667409140144944</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.47962734346541</v>
+        <v>1.352313693158038</v>
       </c>
       <c r="C18">
-        <v>0.2223994234546751</v>
+        <v>0.268162456346289</v>
       </c>
       <c r="D18">
-        <v>0.1194824401227237</v>
+        <v>0.1357705972328631</v>
       </c>
       <c r="E18">
-        <v>0.08138831904483013</v>
+        <v>0.08581708063069371</v>
       </c>
       <c r="F18">
-        <v>1.140477064157523</v>
+        <v>1.018294204850989</v>
       </c>
       <c r="G18">
-        <v>0.8229559462656084</v>
+        <v>0.6986830304786622</v>
       </c>
       <c r="H18">
-        <v>0.0720097329480609</v>
+        <v>0.0718455193478249</v>
       </c>
       <c r="I18">
-        <v>0.002939556841407232</v>
+        <v>0.002537573083265521</v>
       </c>
       <c r="J18">
-        <v>0.5790108155095339</v>
+        <v>0.5292264768363566</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08320893966352827</v>
+        <v>0.1894661557216075</v>
       </c>
       <c r="M18">
-        <v>1.569947753380603</v>
+        <v>0.152157383977535</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08242718326110321</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.54431710412527</v>
       </c>
       <c r="P18">
-        <v>0.9369356401764701</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8799989365166372</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.523465218793774</v>
+        <v>1.384340398618519</v>
       </c>
       <c r="C19">
-        <v>0.2365791751808359</v>
+        <v>0.289019942251258</v>
       </c>
       <c r="D19">
-        <v>0.1507812288895138</v>
+        <v>0.170172419554234</v>
       </c>
       <c r="E19">
-        <v>0.1273725706797855</v>
+        <v>0.1331014470984826</v>
       </c>
       <c r="F19">
-        <v>1.281067642880345</v>
+        <v>1.141953616810952</v>
       </c>
       <c r="G19">
-        <v>0.9184555690540179</v>
+        <v>0.7760055202984546</v>
       </c>
       <c r="H19">
-        <v>0.02657609613395095</v>
+        <v>0.02645589047225627</v>
       </c>
       <c r="I19">
-        <v>0.002910941126475386</v>
+        <v>0.002590724510430853</v>
       </c>
       <c r="J19">
-        <v>0.6277087895068973</v>
+        <v>0.5728858876454126</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1458390290982479</v>
+        <v>0.204337426194229</v>
       </c>
       <c r="M19">
-        <v>1.629051874336341</v>
+        <v>0.166709817890375</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1441531127673628</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.601473762211555</v>
       </c>
       <c r="P19">
-        <v>0.9671319558405358</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8949193801496138</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.672226494176158</v>
+        <v>1.501632174053611</v>
       </c>
       <c r="C20">
-        <v>0.2710013369680837</v>
+        <v>0.3363957668864543</v>
       </c>
       <c r="D20">
-        <v>0.2121895461386174</v>
+        <v>0.2390889501871811</v>
       </c>
       <c r="E20">
-        <v>0.2241167725483919</v>
+        <v>0.2325180197637806</v>
       </c>
       <c r="F20">
-        <v>1.546147127569014</v>
+        <v>1.364430946645413</v>
       </c>
       <c r="G20">
-        <v>1.098391273745364</v>
+        <v>0.931309468602862</v>
       </c>
       <c r="H20">
-        <v>0.0001182501355438959</v>
+        <v>0.0001221244049438575</v>
       </c>
       <c r="I20">
-        <v>0.002285210827407624</v>
+        <v>0.002260640873614328</v>
       </c>
       <c r="J20">
-        <v>0.7155539610877923</v>
+        <v>0.6273291196106925</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2892168923269338</v>
+        <v>0.2258714980345253</v>
       </c>
       <c r="M20">
-        <v>1.806871060292679</v>
+        <v>0.1943955996207052</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2852573866579604</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.768496233739342</v>
       </c>
       <c r="P20">
-        <v>1.011079960463608</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9104729939303127</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.891262377791264</v>
+        <v>1.671189162570442</v>
       </c>
       <c r="C21">
-        <v>0.3075125745023968</v>
+        <v>0.3749255029071605</v>
       </c>
       <c r="D21">
-        <v>0.2429504906473312</v>
+        <v>0.28143177495609</v>
       </c>
       <c r="E21">
-        <v>0.2596047316402661</v>
+        <v>0.2708383605159099</v>
       </c>
       <c r="F21">
-        <v>1.680872349353862</v>
+        <v>1.42902515187518</v>
       </c>
       <c r="G21">
-        <v>1.190974268156126</v>
+        <v>1.081542273825093</v>
       </c>
       <c r="H21">
-        <v>0.0004274878442265262</v>
+        <v>0.0004333679765686771</v>
       </c>
       <c r="I21">
-        <v>0.001714628301284549</v>
+        <v>0.002023469519784271</v>
       </c>
       <c r="J21">
-        <v>0.7541012425046034</v>
+        <v>0.5261582049514431</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3369218863318508</v>
+        <v>0.2183521847813417</v>
       </c>
       <c r="M21">
-        <v>2.046486717066415</v>
+        <v>0.2049523247804892</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3297886543601436</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.968404338775969</v>
       </c>
       <c r="P21">
-        <v>0.9800657365200394</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8624025937727637</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.034887073990433</v>
+        <v>1.780998171193175</v>
       </c>
       <c r="C22">
-        <v>0.3287177665645231</v>
+        <v>0.3960679159778806</v>
       </c>
       <c r="D22">
-        <v>0.2597751108443305</v>
+        <v>0.3062371042942686</v>
       </c>
       <c r="E22">
-        <v>0.277830019397193</v>
+        <v>0.2909716984313349</v>
       </c>
       <c r="F22">
-        <v>1.762417170636226</v>
+        <v>1.462222051739545</v>
       </c>
       <c r="G22">
-        <v>1.248496375627411</v>
+        <v>1.186982657663052</v>
       </c>
       <c r="H22">
-        <v>0.001112393143297252</v>
+        <v>0.001034595092654245</v>
       </c>
       <c r="I22">
-        <v>0.001440425017794844</v>
+        <v>0.001769464887575012</v>
       </c>
       <c r="J22">
-        <v>0.7778692604159403</v>
+        <v>0.460789906362038</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3607002050721633</v>
+        <v>0.2129088040977081</v>
       </c>
       <c r="M22">
-        <v>2.199296249949157</v>
+        <v>0.2114395896959991</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3514172092578889</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.092592997081738</v>
       </c>
       <c r="P22">
-        <v>0.959308755996517</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8310190026847994</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.962463737479709</v>
+        <v>1.728517103428771</v>
       </c>
       <c r="C23">
-        <v>0.3156699114854575</v>
+        <v>0.3841117353563277</v>
       </c>
       <c r="D23">
-        <v>0.2502154375028169</v>
+        <v>0.2915375363650696</v>
       </c>
       <c r="E23">
-        <v>0.2679414725163056</v>
+        <v>0.279847226083092</v>
       </c>
       <c r="F23">
-        <v>1.722832320516886</v>
+        <v>1.452963559566015</v>
       </c>
       <c r="G23">
-        <v>1.221612492542121</v>
+        <v>1.124148366491454</v>
       </c>
       <c r="H23">
-        <v>0.000711652377319627</v>
+        <v>0.0006897656267772501</v>
       </c>
       <c r="I23">
-        <v>0.001241250949219008</v>
+        <v>0.001510429655416701</v>
       </c>
       <c r="J23">
-        <v>0.7671074229119768</v>
+        <v>0.5087801507052063</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3481433485027594</v>
+        <v>0.2173542713382979</v>
       </c>
       <c r="M23">
-        <v>2.118558353962499</v>
+        <v>0.209825754519855</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.340192042739389</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.030781538338232</v>
       </c>
       <c r="P23">
-        <v>0.9722887579371289</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.8498815447064576</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.681744382696905</v>
+        <v>1.509544923117687</v>
       </c>
       <c r="C24">
-        <v>0.2696719626508752</v>
+        <v>0.3355345849957985</v>
       </c>
       <c r="D24">
-        <v>0.2151573856094444</v>
+        <v>0.242363492278983</v>
       </c>
       <c r="E24">
-        <v>0.2309388427435124</v>
+        <v>0.2394949867290634</v>
       </c>
       <c r="F24">
-        <v>1.568441218400153</v>
+        <v>1.384372341436787</v>
       </c>
       <c r="G24">
-        <v>1.115247949149136</v>
+        <v>0.9449322328587897</v>
       </c>
       <c r="H24">
-        <v>5.955862731887862E-07</v>
+        <v>8.853995185464925E-06</v>
       </c>
       <c r="I24">
-        <v>0.001765214023425443</v>
+        <v>0.001648123974484328</v>
       </c>
       <c r="J24">
-        <v>0.724133379951752</v>
+        <v>0.6356888325551893</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3005798735384531</v>
+        <v>0.2290735917925097</v>
       </c>
       <c r="M24">
-        <v>1.81269342990015</v>
+        <v>0.1975182915411224</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2964956365076716</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.77425122129452</v>
       </c>
       <c r="P24">
-        <v>1.019479424109484</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9157640124787498</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.379793294263294</v>
+        <v>1.247535079005928</v>
       </c>
       <c r="C25">
-        <v>0.2211669318690213</v>
+        <v>0.2715004988211547</v>
       </c>
       <c r="D25">
-        <v>0.1777092340024637</v>
+        <v>0.1989255786897814</v>
       </c>
       <c r="E25">
-        <v>0.1913530529513068</v>
+        <v>0.1986017871435948</v>
       </c>
       <c r="F25">
-        <v>1.405917051409716</v>
+        <v>1.257858689058935</v>
       </c>
       <c r="G25">
-        <v>1.003982986034373</v>
+        <v>0.8574217827965498</v>
       </c>
       <c r="H25">
-        <v>0.0008027739774252307</v>
+        <v>0.0005854775436746618</v>
       </c>
       <c r="I25">
-        <v>0.00388909081256017</v>
+        <v>0.002977912405436989</v>
       </c>
       <c r="J25">
-        <v>0.6797232836292437</v>
+        <v>0.6139182611604355</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2496395534159603</v>
+        <v>0.2329527819427852</v>
       </c>
       <c r="M25">
-        <v>1.485067830743105</v>
+        <v>0.1765788376966384</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2474800927331842</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.458738995678061</v>
       </c>
       <c r="P25">
-        <v>1.072785473390173</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.975357223344048</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
